--- a/kvalitativ/osszes_kerdes.xlsb.xlsx
+++ b/kvalitativ/osszes_kerdes.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\kvalitativ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5418A82-7BBA-409A-9F51-50F1D84BD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B53C84-3055-4EC0-A9D4-4EBD967A955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A337628-5605-469F-977E-034B0C443AB2}"/>
   </bookViews>
@@ -17,32 +17,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Munka1!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Munka1!$I$2:$I$121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Munka1!$I$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Munka1!$I$2:$I$121</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Munka1!$B$2:$B$121</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Munka1!$I$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Munka1!$I$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Munka1!$I$2:$I$121</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Munka1!$B$2:$B$121</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Munka1!$I$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Munka1!$I$2:$I$121</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Munka1!$I$2:$I$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,12 +425,6 @@
   </si>
   <si>
     <t>Románia parlamentjének képviselőháza 2012. február 28-i ülésén megszavazta a Sapientia Erdélyi Magyar Tudományegyetem akkreditálását.</t>
-  </si>
-  <si>
-    <t>Mi a fő célja a többciklusú képzés rendszernak?</t>
-  </si>
-  <si>
-    <t>A Bologna-folyamat célja az európai felsőoktatás ésszerű harmonizációja.</t>
   </si>
   <si>
     <t>Fő célja, hogy lehetővé tegye a munkaerőpiacon való elhelyezkedést biztosító diploma megszerzését, ezért az alapképzés során a gyakorlati képzés kap nagyobb hangsúlyt.</t>
@@ -1551,6 +1529,12 @@
         Nyílt napok
         Quiz Night
         Egészségnap</t>
+  </si>
+  <si>
+    <t>Mi a fő célja a többciklusú képzés rendszernek?</t>
+  </si>
+  <si>
+    <t>A többciklusú képzés (alap-, mester- és doktori képzés) célja az egységes Európai Felsőoktatási Térséghez történő csatlakozás és több választási lehetőség teremtése, ezzel több időt hagyva a hallgatóknak tanulmányaik során képességeik felismerésére.</t>
   </si>
 </sst>
 </file>
@@ -1642,25 +1626,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{EA3D2967-54D9-4591-8F29-FC330ACB8D2F}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{26B09A24-E2B8-4324-A76F-EAF88A44027B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Szemantikus hasonlóság méréke (bertscore_f1)</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels>
+          <cx:dataLabels pos="outEnd">
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
@@ -1674,24 +1659,6 @@
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <cx:txPr>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="hu-HU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -2256,25 +2223,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Diagram 1">
+            <xdr:cNvPr id="3" name="Diagram 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2978E8A-96E4-DD65-C56B-B336E1ED0FE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4385EB9D-8CC7-8F25-3A7D-4639C4D68FBE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2301,8 +2268,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8389620" y="571500"/>
-              <a:ext cx="4998720" cy="2987040"/>
+              <a:off x="7170420" y="1055370"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2654,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7E1415-B7EC-4AA2-97AD-CEF22714FADE}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3652,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D35" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>108</v>
       </c>
       <c r="E35">
         <v>2.42</v>
@@ -3673,7 +3640,7 @@
         <v>8.94</v>
       </c>
       <c r="I35">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3681,13 +3648,13 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36">
         <v>1.95</v>
@@ -3710,13 +3677,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>111</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
       </c>
       <c r="E37">
         <v>1.33</v>
@@ -3739,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
         <v>114</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
       </c>
       <c r="E38">
         <v>1.36</v>
@@ -3768,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
       </c>
       <c r="E39">
         <v>1.51</v>
@@ -3797,13 +3764,13 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s">
-        <v>122</v>
       </c>
       <c r="E40">
         <v>1.17</v>
@@ -3826,13 +3793,13 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" t="s">
-        <v>125</v>
       </c>
       <c r="E41">
         <v>1.29</v>
@@ -3855,13 +3822,13 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
         <v>126</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" t="s">
-        <v>128</v>
       </c>
       <c r="E42">
         <v>1.27</v>
@@ -3884,13 +3851,13 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" t="s">
         <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>131</v>
       </c>
       <c r="E43">
         <v>1.98</v>
@@ -3913,13 +3880,13 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
         <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
       </c>
       <c r="E44">
         <v>2.78</v>
@@ -3942,13 +3909,13 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
         <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
       </c>
       <c r="E45">
         <v>1.55</v>
@@ -3971,13 +3938,13 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" t="s">
         <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
       </c>
       <c r="E46">
         <v>1.82</v>
@@ -4000,13 +3967,13 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
         <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>143</v>
       </c>
       <c r="E47">
         <v>0.95</v>
@@ -4029,13 +3996,13 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
         <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
       </c>
       <c r="E48">
         <v>1.67</v>
@@ -4058,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
         <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" t="s">
-        <v>149</v>
       </c>
       <c r="E49">
         <v>1.32</v>
@@ -4087,13 +4054,13 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" t="s">
         <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" t="s">
-        <v>152</v>
       </c>
       <c r="E50">
         <v>1.1499999999999999</v>
@@ -4116,13 +4083,13 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
         <v>153</v>
-      </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
       </c>
       <c r="E51">
         <v>1.32</v>
@@ -4145,13 +4112,13 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="s">
         <v>156</v>
-      </c>
-      <c r="C52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
       </c>
       <c r="E52">
         <v>1.69</v>
@@ -4174,13 +4141,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
         <v>159</v>
-      </c>
-      <c r="C53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" t="s">
-        <v>161</v>
       </c>
       <c r="E53">
         <v>2.2400000000000002</v>
@@ -4203,13 +4170,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
         <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
       </c>
       <c r="E54">
         <v>1.63</v>
@@ -4232,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
         <v>165</v>
-      </c>
-      <c r="C55" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" t="s">
-        <v>167</v>
       </c>
       <c r="E55">
         <v>1.76</v>
@@ -4261,13 +4228,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
         <v>168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
       </c>
       <c r="E56">
         <v>1.87</v>
@@ -4290,13 +4257,13 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E57">
         <v>1.73</v>
@@ -4319,13 +4286,13 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" t="s">
-        <v>175</v>
       </c>
       <c r="E58">
         <v>2.48</v>
@@ -4348,13 +4315,13 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E59">
         <v>1.2</v>
@@ -4377,13 +4344,13 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E60">
         <v>1.08</v>
@@ -4406,13 +4373,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
         <v>180</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
       </c>
       <c r="E61">
         <v>1.55</v>
@@ -4435,13 +4402,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="s">
         <v>183</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>185</v>
       </c>
       <c r="E62">
         <v>1.72</v>
@@ -4464,13 +4431,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" t="s">
         <v>186</v>
-      </c>
-      <c r="C63" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" t="s">
-        <v>188</v>
       </c>
       <c r="E63">
         <v>2.5099999999999998</v>
@@ -4493,13 +4460,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
         <v>189</v>
-      </c>
-      <c r="C64" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
       </c>
       <c r="E64">
         <v>1.66</v>
@@ -4522,13 +4489,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
         <v>192</v>
-      </c>
-      <c r="C65" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" t="s">
-        <v>194</v>
       </c>
       <c r="E65">
         <v>8.0399999999999991</v>
@@ -4551,13 +4518,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" t="s">
-        <v>197</v>
       </c>
       <c r="E66">
         <v>1.38</v>
@@ -4580,13 +4547,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67">
         <v>1.54</v>
@@ -4609,13 +4576,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" t="s">
         <v>200</v>
-      </c>
-      <c r="C68" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" t="s">
-        <v>202</v>
       </c>
       <c r="E68">
         <v>1.87</v>
@@ -4638,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
         <v>203</v>
-      </c>
-      <c r="C69" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" t="s">
-        <v>205</v>
       </c>
       <c r="E69">
         <v>1.48</v>
@@ -4667,13 +4634,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" t="s">
         <v>206</v>
-      </c>
-      <c r="C70" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" t="s">
-        <v>208</v>
       </c>
       <c r="E70">
         <v>1.83</v>
@@ -4696,13 +4663,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" t="s">
         <v>209</v>
-      </c>
-      <c r="C71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" t="s">
-        <v>211</v>
       </c>
       <c r="E71">
         <v>1.94</v>
@@ -4725,13 +4692,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D72" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" t="s">
-        <v>214</v>
       </c>
       <c r="E72">
         <v>1.42</v>
@@ -4754,13 +4721,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
         <v>215</v>
-      </c>
-      <c r="C73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" t="s">
-        <v>217</v>
       </c>
       <c r="E73">
         <v>1.41</v>
@@ -4783,13 +4750,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74">
         <v>1.55</v>
@@ -4812,13 +4779,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
         <v>220</v>
-      </c>
-      <c r="C75" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" t="s">
-        <v>222</v>
       </c>
       <c r="E75">
         <v>1.48</v>
@@ -4841,13 +4808,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
         <v>223</v>
-      </c>
-      <c r="C76" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" t="s">
-        <v>225</v>
       </c>
       <c r="E76">
         <v>2.04</v>
@@ -4870,13 +4837,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
         <v>226</v>
-      </c>
-      <c r="C77" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" t="s">
-        <v>228</v>
       </c>
       <c r="E77">
         <v>1.9</v>
@@ -4899,13 +4866,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" t="s">
         <v>229</v>
-      </c>
-      <c r="C78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" t="s">
-        <v>231</v>
       </c>
       <c r="E78">
         <v>1.64</v>
@@ -4928,13 +4895,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+      <c r="D79" t="s">
         <v>232</v>
-      </c>
-      <c r="C79" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" t="s">
-        <v>234</v>
       </c>
       <c r="E79">
         <v>1.22</v>
@@ -4957,13 +4924,13 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" t="s">
         <v>235</v>
-      </c>
-      <c r="C80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" t="s">
-        <v>237</v>
       </c>
       <c r="E80">
         <v>1.51</v>
@@ -4986,13 +4953,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" t="s">
         <v>238</v>
-      </c>
-      <c r="C81" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" t="s">
-        <v>240</v>
       </c>
       <c r="E81">
         <v>1.39</v>
@@ -5015,13 +4982,13 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E82">
         <v>1.77</v>
@@ -5044,13 +5011,13 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" t="s">
         <v>243</v>
-      </c>
-      <c r="C83" t="s">
-        <v>244</v>
-      </c>
-      <c r="D83" t="s">
-        <v>245</v>
       </c>
       <c r="E83">
         <v>1.48</v>
@@ -5073,13 +5040,13 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" t="s">
         <v>246</v>
-      </c>
-      <c r="C84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" t="s">
-        <v>248</v>
       </c>
       <c r="E84">
         <v>1.73</v>
@@ -5102,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
         <v>249</v>
-      </c>
-      <c r="C85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" t="s">
-        <v>251</v>
       </c>
       <c r="E85">
         <v>2.92</v>
@@ -5131,13 +5098,13 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" t="s">
         <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>253</v>
-      </c>
-      <c r="D86" t="s">
-        <v>254</v>
       </c>
       <c r="E86">
         <v>1.51</v>
@@ -5160,13 +5127,13 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" t="s">
         <v>255</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" t="s">
-        <v>257</v>
       </c>
       <c r="E87">
         <v>1.24</v>
@@ -5189,13 +5156,13 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" t="s">
         <v>258</v>
-      </c>
-      <c r="C88" t="s">
-        <v>259</v>
-      </c>
-      <c r="D88" t="s">
-        <v>260</v>
       </c>
       <c r="E88">
         <v>2.4300000000000002</v>
@@ -5218,13 +5185,13 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" t="s">
         <v>261</v>
-      </c>
-      <c r="C89" t="s">
-        <v>262</v>
-      </c>
-      <c r="D89" t="s">
-        <v>263</v>
       </c>
       <c r="E89">
         <v>1.74</v>
@@ -5247,13 +5214,13 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" t="s">
         <v>264</v>
-      </c>
-      <c r="C90" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" t="s">
-        <v>266</v>
       </c>
       <c r="E90">
         <v>2.6</v>
@@ -5276,13 +5243,13 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" t="s">
         <v>267</v>
-      </c>
-      <c r="C91" t="s">
-        <v>268</v>
-      </c>
-      <c r="D91" t="s">
-        <v>269</v>
       </c>
       <c r="E91">
         <v>1.35</v>
@@ -5305,13 +5272,13 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" t="s">
         <v>270</v>
-      </c>
-      <c r="C92" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" t="s">
-        <v>272</v>
       </c>
       <c r="E92">
         <v>2.0499999999999998</v>
@@ -5334,13 +5301,13 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" t="s">
         <v>273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>274</v>
-      </c>
-      <c r="D93" t="s">
-        <v>275</v>
       </c>
       <c r="E93">
         <v>1.49</v>
@@ -5363,13 +5330,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" t="s">
         <v>276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" t="s">
-        <v>278</v>
       </c>
       <c r="E94">
         <v>1.68</v>
@@ -5392,13 +5359,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" t="s">
         <v>279</v>
-      </c>
-      <c r="C95" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" t="s">
-        <v>281</v>
       </c>
       <c r="E95">
         <v>1.29</v>
@@ -5421,13 +5388,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" t="s">
         <v>282</v>
-      </c>
-      <c r="C96" t="s">
-        <v>283</v>
-      </c>
-      <c r="D96" t="s">
-        <v>284</v>
       </c>
       <c r="E96">
         <v>1.56</v>
@@ -5450,13 +5417,13 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" t="s">
         <v>285</v>
-      </c>
-      <c r="C97" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" t="s">
-        <v>287</v>
       </c>
       <c r="E97">
         <v>1.38</v>
@@ -5479,13 +5446,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" t="s">
         <v>288</v>
-      </c>
-      <c r="C98" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" t="s">
-        <v>290</v>
       </c>
       <c r="E98">
         <v>1.38</v>
@@ -5508,13 +5475,13 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" t="s">
         <v>291</v>
-      </c>
-      <c r="C99" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" t="s">
-        <v>293</v>
       </c>
       <c r="E99">
         <v>1.89</v>
@@ -5537,13 +5504,13 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" t="s">
         <v>294</v>
-      </c>
-      <c r="C100" t="s">
-        <v>295</v>
-      </c>
-      <c r="D100" t="s">
-        <v>296</v>
       </c>
       <c r="E100">
         <v>1.39</v>
@@ -5566,13 +5533,13 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" t="s">
         <v>297</v>
-      </c>
-      <c r="C101" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" t="s">
-        <v>299</v>
       </c>
       <c r="E101">
         <v>2.33</v>
@@ -5595,13 +5562,13 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" t="s">
         <v>300</v>
-      </c>
-      <c r="C102" t="s">
-        <v>301</v>
-      </c>
-      <c r="D102" t="s">
-        <v>302</v>
       </c>
       <c r="E102">
         <v>0.96</v>
@@ -5624,13 +5591,13 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" t="s">
         <v>303</v>
-      </c>
-      <c r="C103" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" t="s">
-        <v>305</v>
       </c>
       <c r="E103">
         <v>1.26</v>
@@ -5653,13 +5620,13 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" t="s">
         <v>306</v>
-      </c>
-      <c r="C104" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" t="s">
-        <v>308</v>
       </c>
       <c r="E104">
         <v>0.95</v>
@@ -5682,13 +5649,13 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" t="s">
         <v>309</v>
-      </c>
-      <c r="C105" t="s">
-        <v>310</v>
-      </c>
-      <c r="D105" t="s">
-        <v>311</v>
       </c>
       <c r="E105">
         <v>1.41</v>
@@ -5711,13 +5678,13 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" t="s">
         <v>312</v>
-      </c>
-      <c r="C106" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" t="s">
-        <v>314</v>
       </c>
       <c r="E106">
         <v>1.1200000000000001</v>
@@ -5740,13 +5707,13 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" t="s">
         <v>315</v>
-      </c>
-      <c r="C107" t="s">
-        <v>316</v>
-      </c>
-      <c r="D107" t="s">
-        <v>317</v>
       </c>
       <c r="E107">
         <v>2.06</v>
@@ -5769,13 +5736,13 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" t="s">
         <v>318</v>
-      </c>
-      <c r="C108" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" t="s">
-        <v>320</v>
       </c>
       <c r="E108">
         <v>1.77</v>
@@ -5798,13 +5765,13 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" t="s">
         <v>321</v>
-      </c>
-      <c r="C109" t="s">
-        <v>322</v>
-      </c>
-      <c r="D109" t="s">
-        <v>323</v>
       </c>
       <c r="E109">
         <v>1.62</v>
@@ -5827,13 +5794,13 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" t="s">
         <v>324</v>
-      </c>
-      <c r="C110" t="s">
-        <v>325</v>
-      </c>
-      <c r="D110" t="s">
-        <v>326</v>
       </c>
       <c r="E110">
         <v>4.18</v>
@@ -5856,13 +5823,13 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" t="s">
         <v>327</v>
-      </c>
-      <c r="C111" t="s">
-        <v>328</v>
-      </c>
-      <c r="D111" t="s">
-        <v>329</v>
       </c>
       <c r="E111">
         <v>1.37</v>
@@ -5885,13 +5852,13 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" t="s">
+        <v>329</v>
+      </c>
+      <c r="D112" t="s">
         <v>330</v>
-      </c>
-      <c r="C112" t="s">
-        <v>331</v>
-      </c>
-      <c r="D112" t="s">
-        <v>332</v>
       </c>
       <c r="E112">
         <v>2.04</v>
@@ -5914,13 +5881,13 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" t="s">
         <v>333</v>
-      </c>
-      <c r="C113" t="s">
-        <v>334</v>
-      </c>
-      <c r="D113" t="s">
-        <v>335</v>
       </c>
       <c r="E113">
         <v>1.27</v>
@@ -5943,13 +5910,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>335</v>
+      </c>
+      <c r="D114" t="s">
         <v>336</v>
-      </c>
-      <c r="C114" t="s">
-        <v>337</v>
-      </c>
-      <c r="D114" t="s">
-        <v>338</v>
       </c>
       <c r="E114">
         <v>1.9</v>
@@ -5972,13 +5939,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
+        <v>337</v>
+      </c>
+      <c r="C115" t="s">
+        <v>338</v>
+      </c>
+      <c r="D115" t="s">
         <v>339</v>
-      </c>
-      <c r="C115" t="s">
-        <v>340</v>
-      </c>
-      <c r="D115" t="s">
-        <v>341</v>
       </c>
       <c r="E115">
         <v>1.45</v>
@@ -6001,13 +5968,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" t="s">
+        <v>341</v>
+      </c>
+      <c r="D116" t="s">
         <v>342</v>
-      </c>
-      <c r="C116" t="s">
-        <v>343</v>
-      </c>
-      <c r="D116" t="s">
-        <v>344</v>
       </c>
       <c r="E116">
         <v>1.71</v>
@@ -6030,13 +5997,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
+        <v>343</v>
+      </c>
+      <c r="C117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" t="s">
         <v>345</v>
-      </c>
-      <c r="C117" t="s">
-        <v>346</v>
-      </c>
-      <c r="D117" t="s">
-        <v>347</v>
       </c>
       <c r="E117">
         <v>1.26</v>
@@ -6059,13 +6026,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" t="s">
+        <v>347</v>
+      </c>
+      <c r="D118" t="s">
         <v>348</v>
-      </c>
-      <c r="C118" t="s">
-        <v>349</v>
-      </c>
-      <c r="D118" t="s">
-        <v>350</v>
       </c>
       <c r="E118">
         <v>2.72</v>
@@ -6088,13 +6055,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119" t="s">
         <v>351</v>
-      </c>
-      <c r="C119" t="s">
-        <v>352</v>
-      </c>
-      <c r="D119" t="s">
-        <v>353</v>
       </c>
       <c r="E119">
         <v>1.63</v>
@@ -6117,13 +6084,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" t="s">
+        <v>353</v>
+      </c>
+      <c r="D120" t="s">
         <v>354</v>
-      </c>
-      <c r="C120" t="s">
-        <v>355</v>
-      </c>
-      <c r="D120" t="s">
-        <v>356</v>
       </c>
       <c r="E120">
         <v>1.78</v>
@@ -6146,13 +6113,13 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>356</v>
+      </c>
+      <c r="D121" t="s">
         <v>357</v>
-      </c>
-      <c r="C121" t="s">
-        <v>358</v>
-      </c>
-      <c r="D121" t="s">
-        <v>359</v>
       </c>
       <c r="E121">
         <v>1.74</v>
